--- a/CASUAL/LA SP-VMO/ANGELES, ANNABEL DIMARANAN.xlsx
+++ b/CASUAL/LA SP-VMO/ANGELES, ANNABEL DIMARANAN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="122">
   <si>
     <t>PERIOD</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>UT(0-2-49)</t>
+  </si>
+  <si>
+    <t>12/15,19-22/2023</t>
   </si>
 </sst>
 </file>
@@ -784,17 +787,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -804,6 +804,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1334,7 +1337,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1380,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1444,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,7 +1504,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1570,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1633,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,7 +1731,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1790,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1855,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1898,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +1973,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2159,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2225,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2283,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2349,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2405,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2480,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2523,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2589,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,7 +2645,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2741,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K132" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3115,12 +3118,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A59" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3150,14 +3153,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3168,16 +3171,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3190,16 +3193,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3225,18 +3228,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3283,7 +3286,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>2.2879999999999967</v>
+        <v>-1.4620000000000033</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3293,7 +3296,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>84.75</v>
+        <v>86</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5061,15 +5064,17 @@
       <c r="B94" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39">
         <v>7</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
@@ -5079,26 +5084,27 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="20"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="39"/>
+      <c r="D95" s="39">
+        <v>5</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G95" s="13"/>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="20" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40">
-        <v>45322</v>
+      <c r="A96" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5116,7 +5122,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5133,7 +5139,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45351</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5661,34 +5669,50 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5756,14 +5780,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5774,16 +5798,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5796,16 +5820,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5831,18 +5855,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/CASUAL/LA SP-VMO/ANGELES, ANNABEL DIMARANAN.xlsx
+++ b/CASUAL/LA SP-VMO/ANGELES, ANNABEL DIMARANAN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="123">
   <si>
     <t>PERIOD</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>12/15,19-22/2023</t>
+  </si>
+  <si>
+    <t>01/05,08/2024</t>
   </si>
 </sst>
 </file>
@@ -787,14 +790,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -804,9 +810,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1337,7 +1340,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1383,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1447,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1507,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1573,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1636,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1734,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1793,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1858,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1901,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1976,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2162,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2228,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2286,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2352,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2408,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2483,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2526,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2592,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2648,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3121,9 +3124,9 @@
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A80" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3153,14 +3156,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3171,16 +3174,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3193,16 +3196,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3228,18 +3231,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3296,7 +3299,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5124,7 +5127,9 @@
       <c r="A97" s="40">
         <v>45322</v>
       </c>
-      <c r="B97" s="20"/>
+      <c r="B97" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
@@ -5133,10 +5138,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="39"/>
+      <c r="H97" s="39">
+        <v>2</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="20" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
@@ -5702,17 +5711,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5780,14 +5789,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5798,16 +5807,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5820,16 +5829,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5855,18 +5864,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/CASUAL/LA SP-VMO/ANGELES, ANNABEL DIMARANAN.xlsx
+++ b/CASUAL/LA SP-VMO/ANGELES, ANNABEL DIMARANAN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
   <si>
     <t>PERIOD</t>
   </si>
@@ -342,61 +342,25 @@
     <t>UT(0-5-22)</t>
   </si>
   <si>
-    <t>A(3-0-0)</t>
-  </si>
-  <si>
-    <t>11/7,28,29/2022</t>
-  </si>
-  <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-1-2)</t>
   </si>
   <si>
     <t>UT(0-3-56)</t>
   </si>
   <si>
-    <t>A(4-0-0)</t>
-  </si>
-  <si>
-    <t>8/8,11,15,19/2022</t>
-  </si>
-  <si>
     <t>UT(0-0-47)</t>
   </si>
   <si>
     <t>UT(0-1-41)</t>
   </si>
   <si>
-    <t>A(10-0-0)</t>
-  </si>
-  <si>
-    <t>6/1,2,9,10,14,17,20,22-24/2022</t>
-  </si>
-  <si>
     <t>UT(0-3-35)</t>
   </si>
   <si>
-    <t>A(14-0-0)</t>
-  </si>
-  <si>
-    <t>5/2,3,4,5,6,11,12,13,16,17,18,19,20/2022</t>
-  </si>
-  <si>
     <t>UT(0-0-24)</t>
   </si>
   <si>
-    <t>A(16-0-0)</t>
-  </si>
-  <si>
-    <t>4/4-8,11-13,18-21,26-29/2022</t>
-  </si>
-  <si>
     <t>UT(0-0-6)</t>
-  </si>
-  <si>
-    <t>3/11,21,23,24/2022</t>
   </si>
   <si>
     <t>UT(0-2-49)</t>
@@ -790,17 +754,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -810,6 +771,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1340,7 +1304,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1347,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1411,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1471,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1537,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1600,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1698,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1757,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1822,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1901,7 +1865,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1940,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2126,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2192,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2250,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,7 +2316,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2372,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2447,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2490,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2556,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,7 +2612,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +2708,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K132" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K125" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3121,12 +3085,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A80" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A59" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,14 +3120,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3174,16 +3138,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3196,16 +3160,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3231,18 +3195,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3289,7 +3253,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>-1.4620000000000033</v>
+        <v>50.537999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4419,13 +4383,13 @@
         <v>44621</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
       <c r="D65" s="39">
-        <v>4</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
@@ -4436,24 +4400,26 @@
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+      <c r="A66" s="40">
+        <v>44652</v>
+      </c>
       <c r="B66" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D66" s="39">
-        <v>0.35199999999999998</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
@@ -4462,16 +4428,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
       <c r="D67" s="39">
-        <v>16</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
@@ -4482,24 +4448,26 @@
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20" t="s">
-        <v>117</v>
-      </c>
+      <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>44713</v>
+      </c>
       <c r="B68" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39">
-        <v>1.2E-2</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
@@ -4508,16 +4476,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>44682</v>
+        <v>44743</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
       <c r="D69" s="39">
-        <v>14</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
@@ -4528,24 +4496,26 @@
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+      <c r="A70" s="40">
+        <v>44774</v>
+      </c>
       <c r="B70" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39">
-        <v>5.000000000000001E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
@@ -4554,16 +4524,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
       <c r="D71" s="39">
-        <v>10</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
@@ -4574,42 +4544,44 @@
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="A72" s="40">
+        <v>44835</v>
+      </c>
       <c r="B72" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D72" s="39">
-        <v>0.44800000000000001</v>
+        <v>0.129</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="49"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>44743</v>
+        <v>44866</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
       <c r="D73" s="39">
-        <v>0.21000000000000002</v>
+        <v>5</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
@@ -4620,20 +4592,22 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>44774</v>
+        <v>44896</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
       <c r="D74" s="39">
-        <v>4</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
@@ -4644,19 +4618,15 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="A75" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="20"/>
       <c r="C75" s="13"/>
-      <c r="D75" s="39">
-        <v>9.8000000000000004E-2</v>
-      </c>
+      <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13" t="str">
@@ -4670,17 +4640,13 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>105</v>
-      </c>
+        <v>44957</v>
+      </c>
+      <c r="B76" s="20"/>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
-      <c r="D76" s="39">
-        <v>0.49199999999999999</v>
-      </c>
+      <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13">
@@ -4694,17 +4660,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>103</v>
-      </c>
+        <v>44985</v>
+      </c>
+      <c r="B77" s="20"/>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
-      <c r="D77" s="39">
-        <v>1</v>
-      </c>
+      <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
@@ -4714,43 +4676,37 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="49">
-        <v>44848</v>
-      </c>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="39">
-        <v>0.129</v>
-      </c>
+      <c r="A78" s="40">
+        <v>45016</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="49"/>
+      <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>72</v>
-      </c>
+        <v>45046</v>
+      </c>
+      <c r="B79" s="20"/>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
-      <c r="D79" s="39">
-        <v>5</v>
-      </c>
+      <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
@@ -4760,45 +4716,37 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="39">
-        <v>3</v>
-      </c>
+      <c r="A80" s="40">
+        <v>45077</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>100</v>
-      </c>
+        <v>45107</v>
+      </c>
+      <c r="B81" s="20"/>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
-      <c r="D81" s="39">
-        <v>0.67100000000000004</v>
-      </c>
+      <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13">
@@ -4811,17 +4759,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
-        <v>79</v>
+      <c r="A82" s="40">
+        <v>45138</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4830,7 +4780,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>44957</v>
+        <v>45169</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -4850,7 +4800,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>44985</v>
+        <v>45199</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -4870,9 +4820,11 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45016</v>
-      </c>
-      <c r="B85" s="20"/>
+        <v>45230</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
@@ -4883,16 +4835,22 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H85" s="39"/>
+      <c r="H85" s="39">
+        <v>2</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45046</v>
-      </c>
-      <c r="B86" s="20"/>
+        <v>45260</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C86" s="13">
         <v>1.25</v>
       </c>
@@ -4903,20 +4861,28 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="39">
+        <v>2</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45077</v>
-      </c>
-      <c r="B87" s="20"/>
+        <v>45291</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
-      <c r="D87" s="39"/>
+      <c r="D87" s="39">
+        <v>7</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13">
@@ -4926,42 +4892,41 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>45107</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D88" s="39"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="39">
+        <v>5</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G88" s="13"/>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="20" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>45138</v>
+      <c r="A89" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -4970,38 +4935,40 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45322</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H90" s="39"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="39">
+        <v>2</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45199</v>
+        <v>45351</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
@@ -5009,106 +4976,71 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C92" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H92" s="39">
-        <v>2</v>
-      </c>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C93" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A93" s="40"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="13"/>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H93" s="39">
-        <v>2</v>
-      </c>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D94" s="39">
-        <v>7</v>
-      </c>
+      <c r="A94" s="40"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
-      <c r="B95" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="B95" s="20"/>
       <c r="C95" s="13"/>
-      <c r="D95" s="39">
-        <v>5</v>
-      </c>
+      <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13"/>
+      <c r="G95" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="48" t="s">
-        <v>96</v>
-      </c>
+      <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5124,12 +5056,8 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="A97" s="40"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
@@ -5138,19 +5066,13 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="39">
-        <v>2</v>
-      </c>
+      <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
-        <v>45351</v>
-      </c>
+      <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5582,146 +5504,34 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="39"/>
+      <c r="A125" s="41"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="43"/>
       <c r="E125" s="9"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="39"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="43"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="39"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="39"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="39"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="39"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="39"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5789,14 +5599,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5807,16 +5617,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5829,16 +5639,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5864,18 +5674,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/CASUAL/LA SP-VMO/ANGELES, ANNABEL DIMARANAN.xlsx
+++ b/CASUAL/LA SP-VMO/ANGELES, ANNABEL DIMARANAN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7158C0-2F30-440B-A20E-DB1BF39A0861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
   <si>
     <t>PERIOD</t>
   </si>
@@ -370,12 +371,18 @@
   </si>
   <si>
     <t>01/05,08/2024</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>2/1-2/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -754,14 +761,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -771,9 +781,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1304,7 +1311,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1354,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1418,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1478,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1544,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1607,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1705,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1764,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,7 +1829,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1872,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1947,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2133,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2199,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2257,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2323,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2379,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2454,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2497,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2563,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2619,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2698,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2708,25 +2715,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K125" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K125" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2738,25 +2745,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K92" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K92" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3063,7 +3070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3073,7 +3080,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3081,34 +3088,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A59" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A86" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3120,16 +3127,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3138,18 +3145,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3160,18 +3167,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3179,7 +3186,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3192,24 +3199,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3244,7 +3251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3253,7 +3260,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>50.537999999999997</v>
+        <v>51.787999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3263,12 +3270,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>84</v>
+        <v>85.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3290,7 +3297,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3310,7 +3317,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3330,7 +3337,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="49"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3350,7 +3357,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3370,7 +3377,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3390,7 +3397,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3410,7 +3417,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3430,7 +3437,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3454,7 +3461,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3474,7 +3481,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3494,7 +3501,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3514,7 +3521,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3534,7 +3541,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>55</v>
       </c>
@@ -3552,7 +3559,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3572,7 +3579,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3592,7 +3599,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3612,7 +3619,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3632,7 +3639,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3652,7 +3659,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3672,7 +3679,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3692,7 +3699,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3712,7 +3719,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3732,7 +3739,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3752,7 +3759,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3772,7 +3779,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3796,7 +3803,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>65</v>
       </c>
@@ -3814,7 +3821,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3834,7 +3841,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3854,7 +3861,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3874,7 +3881,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3894,7 +3901,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3914,7 +3921,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3934,7 +3941,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3954,7 +3961,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3974,7 +3981,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3994,7 +4001,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4014,7 +4021,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="49"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4034,7 +4041,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4058,7 +4065,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>71</v>
       </c>
@@ -4076,7 +4083,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4096,7 +4103,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4116,7 +4123,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4136,7 +4143,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4156,7 +4163,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4176,7 +4183,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4196,7 +4203,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4216,7 +4223,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4236,7 +4243,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4256,7 +4263,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4276,7 +4283,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4296,7 +4303,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4320,7 +4327,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>73</v>
       </c>
@@ -4338,7 +4345,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4358,7 +4365,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4378,7 +4385,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4402,7 +4409,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4426,7 +4433,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4450,7 +4457,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4474,7 +4481,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4498,7 +4505,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4522,7 +4529,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4546,7 +4553,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4570,7 +4577,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4596,7 +4603,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4620,7 +4627,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>79</v>
       </c>
@@ -4638,7 +4645,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4658,7 +4665,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4678,7 +4685,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4698,7 +4705,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4718,7 +4725,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -4738,7 +4745,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
@@ -4758,7 +4765,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
@@ -4778,7 +4785,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
@@ -4798,7 +4805,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45199</v>
       </c>
@@ -4818,7 +4825,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45230</v>
       </c>
@@ -4844,7 +4851,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45260</v>
       </c>
@@ -4870,7 +4877,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45291</v>
       </c>
@@ -4896,7 +4903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>72</v>
@@ -4915,7 +4922,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
         <v>96</v>
       </c>
@@ -4933,20 +4940,22 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45322</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39">
         <v>2</v>
@@ -4957,11 +4966,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45351</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -4973,9 +4984,11 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4991,7 +5004,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5007,7 +5020,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5023,7 +5036,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5039,7 +5052,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5055,7 +5068,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5071,7 +5084,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5087,7 +5100,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5103,7 +5116,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5119,7 +5132,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5135,7 +5148,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5151,7 +5164,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5167,7 +5180,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5183,7 +5196,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5199,7 +5212,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5215,7 +5228,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5231,7 +5244,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5247,7 +5260,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5263,7 +5276,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5279,7 +5292,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5295,7 +5308,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5311,7 +5324,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5327,7 +5340,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5343,7 +5356,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5359,7 +5372,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5375,7 +5388,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5391,7 +5404,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5407,7 +5420,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5423,7 +5436,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5439,7 +5452,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5455,7 +5468,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5471,7 +5484,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5487,7 +5500,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5503,7 +5516,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41"/>
       <c r="B125" s="15"/>
       <c r="C125" s="42"/>
@@ -5521,23 +5534,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5560,34 +5573,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A31" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A31" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="K41" sqref="A41:K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5599,16 +5612,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5617,18 +5630,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5639,18 +5652,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5658,7 +5671,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5671,24 +5684,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5723,7 +5736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5747,7 +5760,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5769,7 +5782,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5791,7 +5804,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -5813,7 +5826,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
@@ -5835,7 +5848,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43344</v>
       </c>
@@ -5859,7 +5872,7 @@
         <v>43357</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43435</v>
       </c>
@@ -5883,7 +5896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>48</v>
@@ -5905,7 +5918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>48</v>
@@ -5927,7 +5940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>55</v>
       </c>
@@ -5945,7 +5958,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43466</v>
       </c>
@@ -5969,7 +5982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -5991,7 +6004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43647</v>
       </c>
@@ -6013,7 +6026,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>48</v>
@@ -6035,7 +6048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43678</v>
       </c>
@@ -6059,7 +6072,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43739</v>
       </c>
@@ -6083,7 +6096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43770</v>
       </c>
@@ -6107,7 +6120,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>50</v>
@@ -6129,7 +6142,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>56</v>
@@ -6151,7 +6164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>50</v>
@@ -6173,7 +6186,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43800</v>
       </c>
@@ -6197,7 +6210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>65</v>
       </c>
@@ -6215,7 +6228,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43862</v>
       </c>
@@ -6237,7 +6250,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>46</v>
@@ -6257,7 +6270,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44013</v>
       </c>
@@ -6281,7 +6294,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>56</v>
@@ -6301,7 +6314,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44075</v>
       </c>
@@ -6325,7 +6338,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>63</v>
@@ -6347,7 +6360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44105</v>
       </c>
@@ -6371,7 +6384,7 @@
         <v>44122</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>50</v>
@@ -6393,7 +6406,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>63</v>
@@ -6415,7 +6428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="48" t="s">
         <v>73</v>
       </c>
@@ -6433,7 +6446,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44774</v>
       </c>
@@ -6457,7 +6470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44835</v>
       </c>
@@ -6481,7 +6494,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>63</v>
@@ -6503,7 +6516,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>79</v>
       </c>
@@ -6521,7 +6534,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44958</v>
       </c>
@@ -6545,7 +6558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44986</v>
       </c>
@@ -6569,7 +6582,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>45017</v>
       </c>
@@ -6587,7 +6600,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>45047</v>
       </c>
@@ -6605,7 +6618,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>45078</v>
       </c>
@@ -6629,7 +6642,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>45106</v>
       </c>
@@ -6653,7 +6666,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>45132</v>
       </c>
@@ -6677,7 +6690,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>84</v>
@@ -6699,7 +6712,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>87</v>
@@ -6721,7 +6734,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>74</v>
@@ -6743,7 +6756,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>45170</v>
       </c>
@@ -6767,7 +6780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>74</v>
@@ -6789,7 +6802,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>87</v>
@@ -6811,7 +6824,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>45200</v>
       </c>
@@ -6835,7 +6848,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>51</v>
@@ -6857,7 +6870,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6873,7 +6886,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6889,7 +6902,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6905,7 +6918,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6921,7 +6934,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6937,7 +6950,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6953,7 +6966,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6969,7 +6982,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6985,7 +6998,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7001,7 +7014,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7017,7 +7030,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7033,7 +7046,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7049,7 +7062,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7065,7 +7078,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7081,7 +7094,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7097,7 +7110,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7113,7 +7126,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7129,7 +7142,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7145,7 +7158,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7161,7 +7174,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7177,7 +7190,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7193,7 +7206,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7209,7 +7222,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7225,7 +7238,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7241,7 +7254,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7257,7 +7270,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7273,7 +7286,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7289,7 +7302,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7305,7 +7318,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7321,7 +7334,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7337,7 +7350,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7353,7 +7366,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7369,7 +7382,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="15"/>
       <c r="C92" s="42"/>
@@ -7400,10 +7413,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7426,28 +7439,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7460,7 +7473,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7489,7 +7502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>35.585000000000001</v>
       </c>
@@ -7517,17 +7530,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7548,7 +7561,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7575,7 +7588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7601,7 +7614,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7627,7 +7640,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7653,7 +7666,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7679,7 +7692,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7705,7 +7718,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7731,7 +7744,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7757,7 +7770,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7777,7 +7790,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7797,7 +7810,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7817,7 +7830,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7838,7 +7851,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7859,7 +7872,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7880,7 +7893,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7901,7 +7914,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7922,7 +7935,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7943,7 +7956,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7964,7 +7977,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7985,7 +7998,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8006,7 +8019,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8027,7 +8040,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8048,7 +8061,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8069,7 +8082,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8090,7 +8103,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8111,7 +8124,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8132,7 +8145,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8153,7 +8166,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8174,7 +8187,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8195,7 +8208,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8216,7 +8229,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8237,7 +8250,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8246,7 +8259,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8255,7 +8268,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8264,7 +8277,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8273,7 +8286,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8282,7 +8295,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8291,7 +8304,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8300,7 +8313,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8309,7 +8322,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8318,7 +8331,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8327,7 +8340,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8336,7 +8349,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8345,7 +8358,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8354,7 +8367,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8363,7 +8376,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8372,7 +8385,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8381,7 +8394,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8390,7 +8403,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8399,7 +8412,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8408,7 +8421,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8417,7 +8430,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8426,7 +8439,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8435,7 +8448,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8444,7 +8457,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8453,7 +8466,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8462,7 +8475,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8471,7 +8484,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8480,7 +8493,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8489,7 +8502,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8498,7 +8511,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
